--- a/functions and modules explanation.xlsx
+++ b/functions and modules explanation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>functions</t>
   </si>
@@ -485,7 +485,8 @@
     <t>fact( n,m=1 )</t>
   </si>
   <si>
-    <t>math function to calculate factorial of a number</t>
+    <t>math function to calculate factorial of a number
+echo( fact ( 5 ) ); // ECHO: 120</t>
   </si>
   <si>
     <t>flip( sec )</t>
@@ -552,6 +553,14 @@
   </si>
   <si>
     <t>ipe( prism,prism1,r,option=0,s=5 )</t>
+  </si>
+  <si>
+    <t>function to calculate fillet
+example :
+ prism=l_extrude( cir( 5,s=50 ),50 );
+ p1=ipe( trns(  [ 0,0,0  ],plane(  [ 0,0,1  ],50 ) ),prism,1 );
+ p2=ipe( trns(  [ 0,0,50  ],plane(  [ 0,0,1  ],50 ) ),flip( prism ),1,1 );
+ swp(  [ each p1,each flip( p2 )  ] );</t>
   </si>
   <si>
     <t>ipf( prism,prism1,r,option=0,s=5 )</t>
@@ -868,6 +877,9 @@
   </si>
   <si>
     <t>remove_duplicate( path )</t>
+  </si>
+  <si>
+    <t>function to remove duplicae points from a list of points or path</t>
   </si>
   <si>
     <t>resurf( list )</t>
@@ -964,6 +976,16 @@
     <t>s_pnt( sec )</t>
   </si>
   <si>
+    <t>function to find the bottom left point from a list of random points
+example:
+a=rands( 0,10,30 );
+ b=rands( 0,7,30 );
+ pnts= [ for( i= [ 0:len( a )-1  ] ) [ a [ i  ],b [ i  ]  ]  ];
+ points( pnts,.3 );
+ starting_point= s_pnt( pnts);
+ points( [ starting_point ] , 0.5 );</t>
+  </si>
+  <si>
     <t>scl2d_c( sec,sl )</t>
   </si>
   <si>
@@ -1071,6 +1093,131 @@
   </si>
   <si>
     <t xml:space="preserve">function to make surface with a polyline 2d sketch and a 3d path( there is no render here but points can be visualised with following command for( p=surf_extrude( sec,path ) )points( p,.2 ); </t>
+  </si>
+  <si>
+    <t>t( m )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to transpose a 3 x 3 matrix
+ example:
+ v1= [ 2,3,5  ];
+ v2= [ 7,8,9  ];
+ v3= [ 10,11,12  ];
+ echo( t(  [ v1,v2,v3  ] ) ); // =&gt; ECHO:  [  [ 2, 7, 10  ],  [ 3, 8, 11  ],  [ 5, 9, 12  ]  ]</t>
+  </si>
+  <si>
+    <t>trns( m,sec )</t>
+  </si>
+  <si>
+    <t>function to translate a group of points "sl" by "m" distance defined in  [ x,y,z  ].e.g. try following code:
+sec=cr(  [  [ 0,0,.5  ], [ 10,0,2  ], [ 7,15,1  ]  ],5 );
+p_line3dc( trns(  [ 2,5,10  ],sec ),.1 );</t>
+  </si>
+  <si>
+    <t>uv( v )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to calculate a unit vector for a given vector
+ example: 
+ echo( uv(  [ 2,3,4  ] ) ); // =&gt; ECHO:  [ 0.371391, 0.557086, 0.742781  ]</t>
+  </si>
+  <si>
+    <t>v_sec_extrude( sec,path,o )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to extrude a section along a path by varying section defined by offset "o"
+ example:
+ sec=cr(  [  [ 0,0,.5  ], [ 10,0,2  ], [ 7,15,1  ]  ],5 );
+ path=c2t3( arc( 20,0,120,s=20 ) );
+ p_line3d( path,.2 );
+ prism=v_sec_extrude( sec,path,-2 );
+ swp( prism );</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>p_extrude ( sec,path )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> module to extrude a section along a open loop path. 2d section "sec" and a 3d path "path" are the 2 arguments to be filled.
+ example
+ sec=cr ( [ [ 0,0,.5 ],[ 10,0,2 ],[ 7,15,1 ] ],10 );
+ path=c2t3 ( arc ( 20,0,355,s=72 ) );
+ p_line3d ( path,.2 );
+ p_extrude ( sec,path );</t>
+  </si>
+  <si>
+    <t>p_extrudec ( sec,path )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> module to extrude a section along a closed loop path. 2d section "sec" and a 3d path "path" are the 2 arguments to be filled.
+ example
+ sec=cr ( [ [ 0,0,.5 ],[ 10,0,2 ],[ 7,15,1 ] ],10 );
+ path=c2t3 ( arc ( 20,0,355,s=72 ) );
+ p_line3d ( path,.2 );
+ p_extrudec ( sec,path );</t>
+  </si>
+  <si>
+    <t>p_line ( path,size=.5 )</t>
+  </si>
+  <si>
+    <t>module for drawing a closed 2d polyline from a group of points "path" and width of the polyline is defined by parameter "size".</t>
+  </si>
+  <si>
+    <t>p_line3d ( path,r,rec=0 )</t>
+  </si>
+  <si>
+    <t>module to draw a polyline in 3d space  ( loop not closed )
+ e.g. try following code:
+ sec=trns ( [ 5,10,6 ],q_rot ( [ "x45" ],cir ( 10 ) ) );
+ p_line3d ( sec,.2 );</t>
+  </si>
+  <si>
+    <t>p_line3dc ( path,r,rec=0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">module to draw a polyline in 3d space  ( loop closed )
+ e.g. try following code:
+ sec=trns ( [ 5,10,6 ],q_rot ( [ "x45" ],cir ( 10 ) ) );
+ p_line3dc ( sec,.2 );    </t>
+  </si>
+  <si>
+    <t>p_lineo ( path,size=.5 )</t>
+  </si>
+  <si>
+    <t>module for drawing an open 2d polyline from a group of points "path" and width of the polyline is defined by parameter "size".</t>
+  </si>
+  <si>
+    <t>points ( p,d=.5 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> module for rendering points along the various shapes 2d or 3d. parameter "d" is the size of cube which is used as point. a list has to be provided for parameter "p"
+ try following code:
+ sec=cr ( [ [ 0,0,.5 ],[ 10,0,2 ],[ 7,15,1 ] ],5 );
+ prism=l_extrude ( sec,h=15,a=90,steps=20 );
+ %swp ( prism );
+ for ( p=prism ) points ( p,.2 );</t>
+  </si>
+  <si>
+    <t>rd_line ( path,size=.5 )</t>
+  </si>
+  <si>
+    <t>surf_base ( surf,h=0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> module to create a solid with base on x-y plane for a surface, produced with function surf_extrude (  ). Parameter "h" gives distance of base from x-y plane e.g. -ve value of "h" meansthe base is below the x-y plane and +ve value means it is above the x-y plane.
+ example:
+ sketch=cr ( pts1 ( [ [ -25,0 ],[ 25,20,100 ],[ 25,-20 ] ] ),20 );
+ path=cytz ( cr ( pts1 ( [ [ 0,-5 ],[ 50,30,50 ],[ 20,-25 ] ] ),20 ) );
+ surf=surf_extrude ( sketch,path );
+ surf_base ( surf,h=-10 );</t>
+  </si>
+  <si>
+    <t>surf_extrude ( sec,path,t=.01 )</t>
+  </si>
+  <si>
+    <t>module to render surface with a polyline 2d sketch and a 3d path. thickness of the surface can be set with parameter "t". positive and negative value creates thickness towards +z and -z directions respectively</t>
   </si>
   <si>
     <t>swp_c( surf1 )</t>
@@ -1118,131 +1265,6 @@
  prism2=p_extrude( sec2,path2 );
  translate(  [ 35,0,0  ] )
  swp( prism2 );</t>
-  </si>
-  <si>
-    <t>t( m )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> function to transpose a 3 x 3 matrix
- example:
- v1= [ 2,3,5  ];
- v2= [ 7,8,9  ];
- v3= [ 10,11,12  ];
- echo( t(  [ v1,v2,v3  ] ) ); // =&gt; ECHO:  [  [ 2, 7, 10  ],  [ 3, 8, 11  ],  [ 5, 9, 12  ]  ]</t>
-  </si>
-  <si>
-    <t>trns( m,sec )</t>
-  </si>
-  <si>
-    <t>function to translate a group of points "sl" by "m" distance defined in  [ x,y,z  ].e.g. try following code:
-sec=cr(  [  [ 0,0,.5  ], [ 10,0,2  ], [ 7,15,1  ]  ],5 );
-p_line3dc( trns(  [ 2,5,10  ],sec ),.1 );</t>
-  </si>
-  <si>
-    <t>uv( v )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> function to calculate a unit vector for a given vector
- example: 
- echo( uv(  [ 2,3,4  ] ) ); // =&gt; ECHO:  [ 0.371391, 0.557086, 0.742781  ]</t>
-  </si>
-  <si>
-    <t>v_sec_extrude( sec,path,o )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> function to extrude a section along a path by varying section defined by offset "o"
- example:
- sec=cr(  [  [ 0,0,.5  ], [ 10,0,2  ], [ 7,15,1  ]  ],5 );
- path=c2t3( arc( 20,0,120,s=20 ) );
- p_line3d( path,.2 );
- prism=v_sec_extrude( sec,path,-2 );
- swp( prism );</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>surf_extrude ( sec,path,t=.01 )</t>
-  </si>
-  <si>
-    <t>module to render surface with a polyline 2d sketch and a 3d path. thickness of the surface can be set with parameter "t". positive and negative value creates thickness towards +z and -z directions respectively</t>
-  </si>
-  <si>
-    <t>p_line ( path,size=.5 )</t>
-  </si>
-  <si>
-    <t>module for drawing a closed 2d polyline from a group of points "path" and width of the polyline is defined by parameter "size".</t>
-  </si>
-  <si>
-    <t>p_lineo ( path,size=.5 )</t>
-  </si>
-  <si>
-    <t>module for drawing an open 2d polyline from a group of points "path" and width of the polyline is defined by parameter "size".</t>
-  </si>
-  <si>
-    <t>rd_line ( path,size=.5 )</t>
-  </si>
-  <si>
-    <t>p_line3d ( path,r,rec=0 )</t>
-  </si>
-  <si>
-    <t>module to draw a polyline in 3d space  ( loop not closed )
- e.g. try following code:
- sec=trns ( [ 5,10,6 ],q_rot ( [ "x45" ],cir ( 10 ) ) );
- p_line3d ( sec,.2 );</t>
-  </si>
-  <si>
-    <t>p_line3dc ( path,r,rec=0 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">module to draw a polyline in 3d space  ( loop closed )
- e.g. try following code:
- sec=trns ( [ 5,10,6 ],q_rot ( [ "x45" ],cir ( 10 ) ) );
- p_line3dc ( sec,.2 );    </t>
-  </si>
-  <si>
-    <t>points ( p,d=.5 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> module for rendering points along the various shapes 2d or 3d. parameter "d" is the size of cube which is used as point. a list has to be provided for parameter "p"
- try following code:
- sec=cr ( [ [ 0,0,.5 ],[ 10,0,2 ],[ 7,15,1 ] ],5 );
- prism=l_extrude ( sec,h=15,a=90,steps=20 );
- %swp ( prism );
- for ( p=prism ) points ( p,.2 );</t>
-  </si>
-  <si>
-    <t>p_extrudec ( sec,path )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> module to extrude a section along a closed loop path. 2d section "sec" and a 3d path "path" are the 2 arguments to be filled.
- example
- sec=cr ( [ [ 0,0,.5 ],[ 10,0,2 ],[ 7,15,1 ] ],10 );
- path=c2t3 ( arc ( 20,0,355,s=72 ) );
- p_line3d ( path,.2 );
- p_extrudec ( sec,path );</t>
-  </si>
-  <si>
-    <t>p_extrude ( sec,path )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> module to extrude a section along a open loop path. 2d section "sec" and a 3d path "path" are the 2 arguments to be filled.
- example
- sec=cr ( [ [ 0,0,.5 ],[ 10,0,2 ],[ 7,15,1 ] ],10 );
- path=c2t3 ( arc ( 20,0,355,s=72 ) );
- p_line3d ( path,.2 );
- p_extrude ( sec,path );</t>
-  </si>
-  <si>
-    <t>surf_base ( surf,h=0 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> module to create a solid with base on x-y plane for a surface, produced with function surf_extrude (  ). Parameter "h" gives distance of base from x-y plane e.g. -ve value of "h" meansthe base is below the x-y plane and +ve value means it is above the x-y plane.
- example:
- sketch=cr ( pts1 ( [ [ -25,0 ],[ 25,20,100 ],[ 25,-20 ] ] ),20 );
- path=cytz ( cr ( pts1 ( [ [ 0,-5 ],[ 50,30,50 ],[ 20,-25 ] ] ),20 ) );
- surf=surf_extrude ( sketch,path );
- surf_base ( surf,h=-10 );</t>
   </si>
 </sst>
 </file>
@@ -2213,10 +2235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B3:C117"/>
+  <dimension ref="B3:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2601,11 +2623,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" ht="28" spans="2:3">
       <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2665,474 +2687,456 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" ht="84" spans="2:3">
       <c r="B58" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="59" ht="210" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" ht="154" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="84" spans="2:3">
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" ht="56" spans="2:3">
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" ht="84" spans="2:3">
       <c r="B64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" ht="70" spans="2:3">
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" ht="112" spans="2:3">
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" ht="126" spans="2:3">
       <c r="B68" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" ht="126" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" ht="112" spans="2:3">
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" ht="56" spans="2:3">
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" ht="56" spans="2:3">
       <c r="B73" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" ht="56" spans="2:3">
       <c r="B74" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" ht="70" spans="2:3">
       <c r="B75" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" ht="84" spans="2:3">
       <c r="B76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" ht="168" spans="2:3">
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" ht="168" spans="2:3">
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" ht="70" spans="2:3">
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" ht="154" spans="2:3">
       <c r="B80" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" ht="224" spans="2:3">
       <c r="B81" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" ht="140" spans="2:3">
       <c r="B82" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" ht="84" spans="2:3">
       <c r="B83" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" ht="84" spans="2:3">
       <c r="B84" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" ht="112" spans="2:3">
       <c r="B85" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" ht="42" spans="2:3">
       <c r="B86" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" ht="56" spans="2:3">
       <c r="B87" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" ht="84" spans="2:3">
       <c r="B89" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="91" ht="266" spans="2:3">
       <c r="B91" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" ht="84" spans="2:3">
       <c r="B92" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" ht="126" spans="2:3">
       <c r="B93" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" ht="84" spans="2:3">
       <c r="B94" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" ht="84" spans="2:3">
       <c r="B95" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" ht="112" spans="2:3">
       <c r="B96" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" ht="112" spans="2:3">
       <c r="B97" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" ht="126" spans="2:3">
       <c r="B98" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="99" ht="84" spans="2:3">
       <c r="B99" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" ht="84" spans="2:3">
       <c r="B100" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" ht="126" spans="2:3">
       <c r="B101" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" ht="126" spans="2:3">
       <c r="B102" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" ht="56" spans="2:3">
       <c r="B103" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" ht="154" spans="2:3">
       <c r="B104" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" ht="56" spans="2:3">
       <c r="B106" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" ht="28" spans="2:3">
       <c r="B107" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" ht="56" spans="2:3">
       <c r="B108" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" ht="42" spans="2:3">
       <c r="B109" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" ht="42" spans="2:3">
       <c r="B110" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" ht="154" spans="2:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" ht="84" spans="2:3">
       <c r="B111" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="112" ht="126" spans="2:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" ht="56" spans="2:3">
       <c r="B112" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="113" ht="224" spans="2:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" ht="42" spans="2:3">
       <c r="B113" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="114" ht="84" spans="2:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" ht="98" spans="2:3">
       <c r="B114" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="115" ht="56" spans="2:3">
-      <c r="B115" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="116" ht="42" spans="2:3">
-      <c r="B116" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="117" ht="98" spans="2:3">
-      <c r="B117" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3147,10 +3151,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:C14"/>
+  <dimension ref="B4:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -3161,91 +3165,118 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="42" spans="2:3">
+    <row r="5" ht="140" spans="2:3">
       <c r="B5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" ht="140" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="2:3">
-      <c r="B6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" ht="28" spans="2:3">
       <c r="B7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" ht="56" spans="2:3">
+      <c r="B8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="56" spans="2:3">
       <c r="B9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="2:3">
+      <c r="B10" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="10" ht="56" spans="2:3">
-      <c r="B10" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="11" ht="98" spans="2:3">
       <c r="B11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" ht="112" spans="2:3">
+      <c r="B13" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="12" ht="140" spans="2:3">
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="14" ht="42" spans="2:3">
+      <c r="B14" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" ht="140" spans="2:3">
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="15" ht="154" spans="2:3">
+      <c r="B15" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="14" ht="112" spans="2:3">
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="16" ht="112" spans="2:3">
+      <c r="B16" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" ht="224" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B5:C17">
+    <sortCondition ref="B5:B17"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/functions and modules explanation.xlsx
+++ b/functions and modules explanation.xlsx
@@ -1272,10 +1272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1301,6 +1301,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1310,7 +1333,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1324,20 +1408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1346,11 +1416,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1366,75 +1435,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1453,7 +1453,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,31 +1513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,19 +1537,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,19 +1597,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,79 +1627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,17 +1656,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,16 +1690,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,32 +1733,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1758,118 +1758,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1878,22 +1878,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2237,7 +2237,7 @@
   <sheetPr/>
   <dimension ref="B3:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C114"/>
     </sheetView>
   </sheetViews>

--- a/functions and modules explanation.xlsx
+++ b/functions and modules explanation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
   <si>
     <t>functions</t>
   </si>
@@ -332,13 +332,13 @@
  echo( bb( rsz3d( spr( 4 ), [ 5,5,8  ] ) ) ); // =&gt; ECHO:  [ 5, 5, 8  ]</t>
   </si>
   <si>
-    <t>bez( p,s=.1 )</t>
-  </si>
-  <si>
-    <t>function for calculating bezier curve with control points "p" and with number of segments 1/s
+    <t>bez( p,s=10 )</t>
+  </si>
+  <si>
+    <t>function for calculating bezier curve with control points "p" and with number of segments "s"
  example:
  p= [  [ 0,0  ], [ 10,5  ], [ 0,15  ], [ 12,20  ]  ]; 
- b=bez( p,.1 ); 
+ b=bez( p,10 ); 
  points( b,.5 );
  //control points
  color( "green" )
@@ -398,6 +398,24 @@
   </si>
   <si>
     <t>math function to calculate number of possible combinations for "n" items with "i" selected items</t>
+  </si>
+  <si>
+    <t>cpo(prism)</t>
+  </si>
+  <si>
+    <t>function to change the orientation of points of a prism. for example check prism and prism1
+sec=cr(pts1( [ [ 5,20 ] , [ 20,10,50 ] , [ 20,-7 ] ]),20);
+sec1=trns([ 0,-.05,0 ],sec);
+prism=[ for ( i = [ 0:5:355 ] ) rot( [ 1,0,0 ] ,sec,i )];
+prism1=cpo(prism);
+translate( [ -60,0,0 ] )
+for( p=prism )points ( p,.5 );
+for( p=prism )p_line3d ( p, .2 );
+translate ( [ 60,0,0 ] )
+for( p=prism1 ) p_line3d ( p, .2 );
+translate ( [ -60,0,30 ] )rotate( [ 90,0,0 ] ) text( "points" );
+translate( [ 0,0,30 ] ) rotate ( [ 90,0,0 ] ) text("prism");
+translate ( [ 60,0,30 ] ) rotate ( [ 90,0,0 ] ) text("prism1");</t>
   </si>
   <si>
     <t>cr( pl,s=20 )</t>
@@ -911,6 +929,22 @@
 p_lineo( line1,.1 );</t>
   </si>
   <si>
+    <t>rnd_v(v,n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to round a vector, "v" to "n" decimal points
+ example:
+ echo(rnd_v(v=[2.3456,3.27598,5.876921],n=3)); // ECHO: [2.346, 3.276, 5.877]</t>
+  </si>
+  <si>
+    <t>rnd(v,n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to round a value "v" to "n" decimal points
+ example:
+ echo(rnd(v=7.9816523,n=2)); // ECHO: 7.98</t>
+  </si>
+  <si>
     <t>rot( axis,prism,ang )</t>
   </si>
   <si>
@@ -1093,6 +1127,19 @@
   </si>
   <si>
     <t xml:space="preserve">function to make surface with a polyline 2d sketch and a 3d path( there is no render here but points can be visualised with following command for( p=surf_extrude( sec,path ) )points( p,.2 ); </t>
+  </si>
+  <si>
+    <t>surf_offset(prism,d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to draw an offset for a 3d prism
+ example:
+ sec=cir(10);
+ path=cr(pts1( [ [ 2,0 ] , [ -2,0,2 ] , [ -1,10,2 ] , [ -4,0 ] ] ),5 );
+ prism=prism( sec,path );
+ //swp(prism);
+ prism1= surf_offset(prism,-1);
+ swp_prism_h( prism,prism1 );</t>
   </si>
   <si>
     <t>t( m )</t>
@@ -1273,9 +1320,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1301,100 +1348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1416,10 +1371,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1432,7 +1411,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,19 +1500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,7 +1518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,19 +1536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,25 +1548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,13 +1566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,13 +1590,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,31 +1650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,13 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,17 +1703,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1676,15 +1717,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1730,15 +1762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1753,147 +1776,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1903,12 +1950,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2235,10 +2288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B3:C114"/>
+  <dimension ref="B3:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2535,15 +2588,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" ht="70" spans="2:3">
-      <c r="B39" s="2" t="s">
+    <row r="39" ht="224" spans="2:3">
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" ht="56" spans="2:3">
+    <row r="40" ht="70" spans="2:3">
       <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
@@ -2551,7 +2604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" ht="28" spans="2:3">
+    <row r="41" ht="56" spans="2:3">
       <c r="B41" s="2" t="s">
         <v>76</v>
       </c>
@@ -2559,7 +2612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" ht="42" spans="2:3">
+    <row r="42" ht="28" spans="2:3">
       <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
@@ -2575,27 +2628,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" ht="42" spans="2:3">
       <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" ht="28" spans="2:3">
+    <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" ht="28" spans="2:3">
       <c r="B46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2607,15 +2660,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" ht="70" spans="2:3">
+    <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" ht="98" spans="2:3">
+    <row r="49" ht="70" spans="2:3">
       <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
@@ -2623,7 +2676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" ht="28" spans="2:3">
+    <row r="50" ht="98" spans="2:3">
       <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
@@ -2631,23 +2684,23 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" ht="28" spans="2:3">
       <c r="B51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" ht="56" spans="2:3">
+    <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="2:3">
+    <row r="53" ht="56" spans="2:3">
       <c r="B53" s="2" t="s">
         <v>100</v>
       </c>
@@ -2655,7 +2708,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="2:3">
+    <row r="54" ht="70" spans="2:3">
       <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
@@ -2663,7 +2716,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" ht="28" spans="2:3">
+    <row r="55" ht="98" spans="2:3">
       <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
@@ -2679,7 +2732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" ht="168" spans="2:3">
+    <row r="57" ht="28" spans="2:3">
       <c r="B57" s="2" t="s">
         <v>108</v>
       </c>
@@ -2687,7 +2740,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" ht="84" spans="2:3">
+    <row r="58" ht="168" spans="2:3">
       <c r="B58" s="2" t="s">
         <v>110</v>
       </c>
@@ -2695,7 +2748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" ht="210" spans="2:3">
+    <row r="59" ht="84" spans="2:3">
       <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
@@ -2703,7 +2756,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" ht="56" spans="2:3">
+    <row r="60" ht="210" spans="2:3">
       <c r="B60" s="2" t="s">
         <v>114</v>
       </c>
@@ -2711,7 +2764,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" ht="154" spans="2:3">
+    <row r="61" ht="56" spans="2:3">
       <c r="B61" s="2" t="s">
         <v>116</v>
       </c>
@@ -2719,7 +2772,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" ht="84" spans="2:3">
+    <row r="62" ht="154" spans="2:3">
       <c r="B62" s="2" t="s">
         <v>118</v>
       </c>
@@ -2727,7 +2780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" ht="56" spans="2:3">
+    <row r="63" ht="84" spans="2:3">
       <c r="B63" s="2" t="s">
         <v>120</v>
       </c>
@@ -2735,7 +2788,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" ht="84" spans="2:3">
+    <row r="64" ht="56" spans="2:3">
       <c r="B64" s="2" t="s">
         <v>122</v>
       </c>
@@ -2743,21 +2796,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" ht="84" spans="2:3">
       <c r="B65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" ht="70" spans="2:3">
+      <c r="C65" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" ht="112" spans="2:3">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" ht="70" spans="2:3">
       <c r="B67" s="2" t="s">
         <v>127</v>
       </c>
@@ -2765,7 +2818,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" ht="126" spans="2:3">
+    <row r="68" ht="112" spans="2:3">
       <c r="B68" s="2" t="s">
         <v>129</v>
       </c>
@@ -2781,7 +2834,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" ht="112" spans="2:3">
+    <row r="70" ht="126" spans="2:3">
       <c r="B70" s="2" t="s">
         <v>133</v>
       </c>
@@ -2789,7 +2842,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" ht="56" spans="2:3">
+    <row r="71" ht="112" spans="2:3">
       <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
@@ -2797,19 +2850,19 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" ht="56" spans="2:3">
       <c r="B72" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" ht="56" spans="2:3">
+      <c r="C72" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" ht="56" spans="2:3">
       <c r="B74" s="2" t="s">
@@ -2819,7 +2872,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" ht="70" spans="2:3">
+    <row r="75" ht="56" spans="2:3">
       <c r="B75" s="2" t="s">
         <v>142</v>
       </c>
@@ -2827,7 +2880,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" ht="84" spans="2:3">
+    <row r="76" ht="70" spans="2:3">
       <c r="B76" s="2" t="s">
         <v>144</v>
       </c>
@@ -2835,7 +2888,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" ht="168" spans="2:3">
+    <row r="77" ht="84" spans="2:3">
       <c r="B77" s="2" t="s">
         <v>146</v>
       </c>
@@ -2851,7 +2904,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" ht="70" spans="2:3">
+    <row r="79" ht="168" spans="2:3">
       <c r="B79" s="2" t="s">
         <v>150</v>
       </c>
@@ -2859,7 +2912,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" ht="154" spans="2:3">
+    <row r="80" ht="70" spans="2:3">
       <c r="B80" s="2" t="s">
         <v>152</v>
       </c>
@@ -2867,7 +2920,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" ht="224" spans="2:3">
+    <row r="81" ht="154" spans="2:3">
       <c r="B81" s="2" t="s">
         <v>154</v>
       </c>
@@ -2875,7 +2928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" ht="140" spans="2:3">
+    <row r="82" ht="224" spans="2:3">
       <c r="B82" s="2" t="s">
         <v>156</v>
       </c>
@@ -2883,7 +2936,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" ht="84" spans="2:3">
+    <row r="83" ht="140" spans="2:3">
       <c r="B83" s="2" t="s">
         <v>158</v>
       </c>
@@ -2899,7 +2952,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" ht="112" spans="2:3">
+    <row r="85" ht="84" spans="2:3">
       <c r="B85" s="2" t="s">
         <v>162</v>
       </c>
@@ -2907,7 +2960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" ht="42" spans="2:3">
+    <row r="86" ht="112" spans="2:3">
       <c r="B86" s="2" t="s">
         <v>164</v>
       </c>
@@ -2915,7 +2968,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" ht="56" spans="2:3">
+    <row r="87" ht="42" spans="2:3">
       <c r="B87" s="2" t="s">
         <v>166</v>
       </c>
@@ -2923,39 +2976,39 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" ht="56" spans="2:3">
       <c r="B88" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="89" ht="84" spans="2:3">
+    <row r="89" spans="2:3">
       <c r="B89" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" ht="84" spans="2:3">
       <c r="B90" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="91" ht="266" spans="2:3">
+    <row r="91" spans="2:3">
       <c r="B91" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="92" ht="84" spans="2:3">
+    <row r="92" ht="266" spans="2:3">
       <c r="B92" s="2" t="s">
         <v>176</v>
       </c>
@@ -2963,7 +3016,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" ht="126" spans="2:3">
+    <row r="93" ht="84" spans="2:3">
       <c r="B93" s="2" t="s">
         <v>178</v>
       </c>
@@ -2971,23 +3024,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" ht="84" spans="2:3">
-      <c r="B94" s="2" t="s">
+    <row r="94" ht="42" spans="2:3">
+      <c r="B94" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="95" ht="84" spans="2:3">
-      <c r="B95" s="2" t="s">
+    <row r="95" ht="42" spans="2:3">
+      <c r="B95" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="96" ht="112" spans="2:3">
+    <row r="96" ht="126" spans="2:3">
       <c r="B96" s="2" t="s">
         <v>184</v>
       </c>
@@ -2995,7 +3048,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" ht="112" spans="2:3">
+    <row r="97" ht="84" spans="2:3">
       <c r="B97" s="2" t="s">
         <v>186</v>
       </c>
@@ -3003,7 +3056,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" ht="126" spans="2:3">
+    <row r="98" ht="84" spans="2:3">
       <c r="B98" s="2" t="s">
         <v>188</v>
       </c>
@@ -3011,7 +3064,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" ht="84" spans="2:3">
+    <row r="99" ht="112" spans="2:3">
       <c r="B99" s="2" t="s">
         <v>190</v>
       </c>
@@ -3019,7 +3072,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="100" ht="84" spans="2:3">
+    <row r="100" ht="112" spans="2:3">
       <c r="B100" s="2" t="s">
         <v>192</v>
       </c>
@@ -3035,7 +3088,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="102" ht="126" spans="2:3">
+    <row r="102" ht="84" spans="2:3">
       <c r="B102" s="2" t="s">
         <v>196</v>
       </c>
@@ -3043,7 +3096,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" ht="56" spans="2:3">
+    <row r="103" ht="84" spans="2:3">
       <c r="B103" s="2" t="s">
         <v>198</v>
       </c>
@@ -3051,7 +3104,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" ht="154" spans="2:3">
+    <row r="104" ht="126" spans="2:3">
       <c r="B104" s="2" t="s">
         <v>200</v>
       </c>
@@ -3059,11 +3112,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" ht="126" spans="2:3">
       <c r="B105" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3075,7 +3128,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" ht="28" spans="2:3">
+    <row r="107" ht="154" spans="2:3">
       <c r="B107" s="2" t="s">
         <v>206</v>
       </c>
@@ -3083,15 +3136,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" ht="56" spans="2:3">
+    <row r="108" spans="2:3">
       <c r="B108" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109" ht="42" spans="2:3">
+    <row r="109" ht="56" spans="2:3">
       <c r="B109" s="2" t="s">
         <v>210</v>
       </c>
@@ -3099,7 +3152,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" ht="42" spans="2:3">
+    <row r="110" ht="28" spans="2:3">
       <c r="B110" s="2" t="s">
         <v>212</v>
       </c>
@@ -3107,7 +3160,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" ht="84" spans="2:3">
+    <row r="111" ht="56" spans="2:3">
       <c r="B111" s="2" t="s">
         <v>214</v>
       </c>
@@ -3115,7 +3168,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" ht="56" spans="2:3">
+    <row r="112" ht="42" spans="2:3">
       <c r="B112" s="2" t="s">
         <v>216</v>
       </c>
@@ -3131,17 +3184,49 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" ht="98" spans="2:3">
-      <c r="B114" s="2" t="s">
+    <row r="114" ht="112" spans="2:3">
+      <c r="B114" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="5" t="s">
         <v>221</v>
       </c>
     </row>
+    <row r="115" ht="84" spans="2:3">
+      <c r="B115" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" ht="56" spans="2:3">
+      <c r="B116" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" ht="42" spans="2:3">
+      <c r="B117" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" ht="98" spans="2:3">
+      <c r="B118" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B4:C117">
-    <sortCondition ref="B4:B117"/>
+  <sortState ref="B4:C118">
+    <sortCondition ref="B4:B118"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3165,7 +3250,7 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -3173,104 +3258,104 @@
     </row>
     <row r="5" ht="140" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" ht="140" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" ht="28" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" ht="56" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" ht="56" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" ht="28" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" ht="98" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" ht="112" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" ht="42" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" ht="154" spans="2:3">
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" ht="112" spans="2:3">
       <c r="B16" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" ht="224" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/functions and modules explanation.xlsx
+++ b/functions and modules explanation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293">
   <si>
     <t>functions</t>
   </si>
@@ -28,8 +28,8 @@
   <si>
     <t>function to create 2d fillet between 2 circles, where r1,r2 and c1,c2 are radiuses and enter points of the 2 circles respectively. r-&gt; fillet radius
 //example:
-%p_line( cir( 5 ),.2 );
-%p_line( cir( 3, [  7, 0   ] ),.2 );
+%p_line( circle( 5 ),.2 );
+%p_line( circle( 3, [  7, 0   ] ),.2 );
 fillet=2cir_fillet( r1=5,r2=3,c1= [  0, 0   ],c2= [  7 ,0   ],r=1 );
 p_line( fillet,.2 );</t>
   </si>
@@ -39,8 +39,8 @@
   <si>
     <t>function to create 2d fillet between 2 circles ( creates fillet only one side ), where r1,r2 and c1,c2 are radiuses and enter points of the 2 circles respectively. r-&gt; fillet radius
 //example:
-%p_line( cir( 5 ),.2 );
-%p_line( cir( 3, [  7, 0   ] ),.2 );
+%p_line( circle( 5 ),.2 );
+%p_line( circle( 3, [  7, 0   ] ),.2 );
 fillet=2cir_fillet1( r1=5,r2=3,c1= [  0, 0   ],c2= [  7 ,0   ],r=1 );
 p_line( fillet,.2 );</t>
   </si>
@@ -59,8 +59,8 @@
     <t xml:space="preserve"> function to create tangent between 2 circle where r1, r2 and cp1, cp2 are the radiuses and center points of the 2 circles respectively. 
  example:
   tangent=2cir_tangent( 5,3, [ 0,0  ], [ 7,0  ] );
-  %p_line( cir( 5 ),.2 );
-  %p_line( cir( 3, [  7, 0   ]  ), .2  );
+  %p_line( circle( 5 ),.2 );
+  %p_line( circle( 3, [  7, 0   ]  ), .2  );
   p_line(  tangent , .2  );</t>
   </si>
   <si>
@@ -71,8 +71,8 @@
  try this code as an example:
  sec=2cir_tarc(  10, 5,  [  0, 0   ], [  20 , 5   ], 20  );
  p_lineo(  sec , .2  );
- p_line(  cir(  10  ) , .2  );
- p_line( cir(  5,  [  20, 5   ]  ), .2  );</t>
+ p_line(  circle(  10  ) , .2  );
+ p_line( cir(cle  5,  [  20, 5   ]  ), .2  );</t>
   </si>
   <si>
     <t>2ctp( r1,r2,cp1,cp2 )</t>
@@ -81,8 +81,8 @@
     <t>function to draw tangent line joining 2 circles with radiuses "r1" and "r2" with center points "cp1" and "cp2" respectively. This function draws tangent line only one side
  e.g. try this code below:
  sec=2ctp( r1=10,r2=5,cp1= [  0, 0   ],cp2= [  15 ,6   ] );
- p_line( cir(  10  ), .1  );
- p_line( cir( 5,  [  15, 6   ]  ), .1  );
+ p_line( circle(  10  ), .1  );
+ p_line( circle( 5,  [  15, 6   ]  ), .1  );
  p_line( sec, .1  );</t>
   </si>
   <si>
@@ -92,8 +92,8 @@
     <t>function to draw tangent line joining 2 circles with radiuses "r1" and "r2" with center points "cp1" and "cp2" respectively. This function draws tangent line on both the sides
  e.g. try this code below:
  sec=2ctpf( r1=10,r2=5,cp1= [  0, 0   ],cp2= [  15, 6   ] );
- p_line( cir(  10  ), .1  );
- p_line( cir( 5, [  15 , 6   ]  ), .1  );
+ p_line( circle(  10  ), .1  );
+ p_line( circle( 5, [  15 , 6   ]  ), .1  );
  p_line( sec, .1  );</t>
   </si>
   <si>
@@ -103,8 +103,8 @@
     <t>function for creating fillet between 2 cylinders. r1, r2 and cp1,cp2 are the radiuses and center points of 2 cylinders respectively. r -&gt; is the fillet radius. path -&gt; is given for rounding the cylinder edges
 // example
  path= [  [ 0,0  ], [ 0,10  ]  ];
- %swp( cyl( r=5,h=15 ) );
- %swp( cyl( r=3,h=10,cp= [  7, 0   ] ) );
+ %swp( cylinder( r=5,h=15 ) );
+ %swp( cylinder( r=3,h=10,cp= [  7, 0   ] ) );
  swp( 2cyl_fillet( 5,3, [  0, 0   ], [  7, 0   ],1,path ) );</t>
   </si>
   <si>
@@ -123,6 +123,15 @@
     <t xml:space="preserve"> function creates a shortest 2d arc with 2 points with a radius "r" and number of segments "s". parameter cw( clockwise=1 and counter clockwise=-1 ) defines the order of arc
 try this example for better understanding:
  sec=2p_arc( p1= [ 2,3  ],p2= [ 6,5  ],r=2.25,cw=-1,s=20 );
+ p_lineo( sec,.2 );</t>
+  </si>
+  <si>
+    <t>2p_long_arc( p1,p2,r,cw=1,s=20 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function creates a longest 2d arc with 2 points with a radius "r" and number of segments "s". parameter cw( clockwise=1 and counter clockwise=-1 ) defines the order of arc
+try this example for better understanding:
+ sec=2p_long_arc( p1= [ 2,3  ],p2= [ 6,5  ],r=3,cw=-1,s=20 );
  p_lineo( sec,.2 );</t>
   </si>
   <si>
@@ -139,22 +148,13 @@
  p_line3d( arc,.2 );</t>
   </si>
   <si>
-    <t>2r( p1,p2,r,cw=1,s=20 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> function creates a longest 2d arc with 2 points with a radius "r" and number of segments "s". parameter cw( clockwise=1 and counter clockwise=-1 ) defines the order of arc
-try this example for better understanding:
- sec=2r( p1= [ 2,3  ],p2= [ 6,5  ],r=3,cw=-1,s=20 );
- p_lineo( sec,.2 );</t>
-  </si>
-  <si>
     <t>2spr_fillet( r1,r2,cp1,cp2,r )</t>
   </si>
   <si>
     <t xml:space="preserve"> function for creating fillet between 2 spheres. r1, r2 and cp1,cp2 are the radiuses and center points of 2 spheres. r-&gt; fillet radius.
 // example:
- swp( spr( r=5,cp= [ 0,0,0  ] ) );
- swp( spr( r=3,cp= [ 7,0,0  ] ) );
+ swp( sphere( r=5,cp= [ 0,0,0  ] ) );
+ swp( sphere( r=3,cp= [ 7,0,0  ] ) );
  fillet=2spr_fillet( r1=5,r2=3,cp1= [ 0,0,0  ],cp2= [ 7,0,0  ],1 );
  swp( fillet );</t>
   </si>
@@ -188,7 +188,7 @@
   <si>
     <t xml:space="preserve"> function to calculate an offset of sectio  in 3d space
  example:
- sec=trns(  [ 7,8,20  ],align_v(  [ 2,3,5  ],cir( 5 ) ) );
+ sec=trns(  [ 7,8,20  ],align_v(  [ 2,3,5  ],circle( 5 ) ) );
  p_line3dc( sec,.2 );
  p_line3dc( 3d_offset( sec,nv( sec ),1 ),.2 );</t>
   </si>
@@ -285,7 +285,7 @@
     <t xml:space="preserve"> function to find the angle of a 2d vector with  [ 1,0  ]
  example
   point= [ 10,0  ];
-  cir=cir( r=7.5,cp= [ 22.5,15  ] );
+  cir=circle( r=7.5,cp= [ 22.5,15  ] );
   tangent_point=p_cir_t( point,cir );
   v=tangent_point-point;
   ang=ang_v( v );
@@ -310,12 +310,12 @@
     <t>function to draw points in circular arc with radius, start angle "ang1" , end angle "ang2", center point of the arc "cp" and number of segments required in the arc "s". e.g. following code will draw an arc of radius 5 from 0 to 90 degrees centered at  [ 0,0  ] with 20 segments in the arc: p_lineo( arc( radius=5,ang1=0,ang2=90,cp= [ 0,0  ],s=20 ),.1 );</t>
   </si>
   <si>
-    <t>avg_v( prism</t>
+    <t>avg_v( prism)</t>
   </si>
   <si>
     <t xml:space="preserve"> function to calculate average of a group of points either 2d or 3d
  example:
- sec=cir( 10 );
+ sec=circle( 10 );
  path=cr( pts1(  [  [ 2,0  ], [ -2,0,2  ], [ 0,10,3  ], [ -3,0  ]  ] ),5 );
  prism=prism( sec,path );
  %swp( prism );
@@ -329,16 +329,16 @@
   <si>
     <t xml:space="preserve"> function to calculate the bounding box dimensions of a prism
  example:
- echo( bb( rsz3d( spr( 4 ), [ 5,5,8  ] ) ) ); // =&gt; ECHO:  [ 5, 5, 8  ]</t>
-  </si>
-  <si>
-    <t>bez( p,s=10 )</t>
+ echo( bb( rsz3d( sphere( 4 ), [ 5,5,8  ] ) ) ); // =&gt; ECHO:  [ 5, 5, 8  ]</t>
+  </si>
+  <si>
+    <t>bezier( p,s=10 )</t>
   </si>
   <si>
     <t>function for calculating bezier curve with control points "p" and with number of segments "s"
  example:
  p= [  [ 0,0  ], [ 10,5  ], [ 0,15  ], [ 12,20  ]  ]; 
- b=bez( p,10 ); 
+ b=bezier( p,10 ); 
  points( b,.5 );
  //control points
  color( "green" )
@@ -383,12 +383,12 @@
     <t xml:space="preserve"> function to find the tanget from a circle to a point outside the circle
  example:
  point= [ 10,0  ];
- cir=cir( r=7.5,cp= [ 22.5,15  ] );
+ cir=circle( r=7.5,cp= [ 22.5,15  ] );
  p_line(  [ cir_p_t( cir,point ),point  ],.2 );
  p_line( cir,.2 );</t>
   </si>
   <si>
-    <t>cir( r,cp= [ 0,0  ],s=50 )</t>
+    <t>circle( r,cp= [ 0,0  ],s=50 )</t>
   </si>
   <si>
     <t>function for creating points in circle with radius "r", center point "cp" and number of segments "s"</t>
@@ -398,6 +398,53 @@
   </si>
   <si>
     <t>math function to calculate number of possible combinations for "n" items with "i" selected items</t>
+  </si>
+  <si>
+    <t>concave_hull(sec,k)</t>
+  </si>
+  <si>
+    <t>function to find the concave hull of a list of points, parameter "k" refers to the sensitivity, when k=1, sensitivity is maximum and higher numbers will subsequently reduce the sensitivity. number of 2 is generally a good number.
+example:
+a=rands(0,10,100);
+ b=rands(0,7,100);
+ pnts=[for(i=[0:len(a)-1])[a[i],b[i]]];
+ points(pnts,.3);
+ cn_hull=concave_hull(pnts,1);
+ color("green")
+ p_line(cn_hull,.1);</t>
+  </si>
+  <si>
+    <t>convert_sec(sec,d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to convert a section with corner radius to without radius for a given radius. Only for clockwise points  for example 
+ sec=cr(pts1([ [0,0,.2],[8,3,3],[5,7,1],[-8,0,2],[-5,20,1] ]),20);
+ //sec=cr(pts1([ [0,0,.5],[7,5,2],[5,7,3],[-5,7,5],[-7,5,5] ]),20);
+ %p_line(sec,.1);
+ sec1=convert_sec(sec,4); // in case the corner radius of a section is &lt; 4, the corner radius reduced to 0.
+ p_line(sec1,.1);</t>
+  </si>
+  <si>
+    <t>convert_sec1(sec,d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to convert a section with corner radius to without radius for a given radius. only for counter clockwise points for example 
+ sec=cr(pts1([ [0,0,.2],[8,3,3],[5,7,1],[-8,0,2],[-5,20,1] ]),20);
+ //sec=cr(pts1([ [0,0,.5],[7,5,2],[5,7,3],[-5,7,5],[-7,5,5] ]),20);
+ %p_line(sec,.1);
+ sec1=convert_sec1(sec,4); // in case the corner radius of a section is &lt; 4, the corner radius reduced to 0.
+ p_line(sec1,.1);</t>
+  </si>
+  <si>
+    <t>convert_sec2(sec,d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to convert a section with corner radius to without radius for a given radius. for example 
+ sec=cr(pts1([ [0,0,.2],[8,3,3],[5,7,1],[-8,0,2],[-5,20,1] ]),20);
+ //sec=cr(pts1([ [0,0,.5],[7,5,2],[5,7,3],[-5,7,5],[-7,5,5] ]),20);
+ %p_line(sec,.1);
+ sec1=convert_sec2(sec,4); // in case the corner radius of a section is &lt; 4, the corner radius reduced to 0.
+ p_line(sec1,.1);</t>
   </si>
   <si>
     <t>cpo(prism)</t>
@@ -435,11 +482,11 @@
  p_line3d( path,.2 );</t>
   </si>
   <si>
-    <t>cub( p,center=false )</t>
+    <t>cube( p,center=false )</t>
   </si>
   <si>
     <t xml:space="preserve"> function to draw cube
- swp( cub( p= [ 10,5,4  ] ) );</t>
+ swp( cube( p= [ 10,5,4  ] ) );</t>
   </si>
   <si>
     <t>cumsum( list )</t>
@@ -456,10 +503,10 @@
     <t>function to identify whether the section is clockwise or counter clockwise. cw( sec )==1 means clockwise and -1 means counterclockwise. e.g. echo( cw(  [  [ 0,0  ], [ 4,0  ], [ 0,4  ], [ -4,0  ]  ] ) );// -1</t>
   </si>
   <si>
-    <t>cyl( r1=1,r2=1,h=1,cp= [ 0,0  ],s=50,r,d,d1,d2,center=false )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">draws a cylinder try swp( cyl( r=5,h=15 ) ); </t>
+    <t>cylinder( r1=1,r2=1,h=1,cp= [ 0,0  ],s=50,r,d,d1,d2,center=false )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">draws a cylinder try swp( cylinder( r=5,h=15 ) ); </t>
   </si>
   <si>
     <t>cytz( path )</t>
@@ -549,6 +596,12 @@
     <t>function to calculate the intersection point between 2 lines e.g. echo( i_p2d( l1= [  [ 0,0  ], [ 1,4  ]  ],l2= [  [ 10,0  ], [ 7,2  ]  ] ) ); =&gt; //ECHO:  [ 1.42857, 5.71429  ]</t>
   </si>
   <si>
+    <t>i_p2dw(l1,l2)</t>
+  </si>
+  <si>
+    <t>function to calculate intersection point between 2 lines where the intersection point lies inside both the lines</t>
+  </si>
+  <si>
     <t>i_p3d( l1,l2 )</t>
   </si>
   <si>
@@ -560,10 +613,10 @@
   <si>
     <t xml:space="preserve"> function to calculate intersection point between two 3d prisms. "prism" is the 3d object which is intersected with "prism1".
  try below code for better understanding:
- sec=cir( 10 );
+ sec=circle( 10 );
  path=cr( pts1(  [  [ 2,0  ], [ -2,0,2  ], [ 0,10,3  ], [ -9.9,0  ]  ] ),5 );
  prism=prism( sec,path );
- prism1=q_rot(  [ "y40"  ],cyl( r=3,h=15,s=30 ) );
+ prism1=q_rot(  [ "y40"  ],cylinder( r=3,h=15,s=30 ) );
  %swp( prism );
  %swp( prism1 );
  ip=ip( prism,prism1 );
@@ -575,7 +628,7 @@
   <si>
     <t>function to calculate fillet
 example :
- prism=l_extrude( cir( 5,s=50 ),50 );
+ prism=l_extrude( circle( 5,s=50 ),50 );
  p1=ipe( trns(  [ 0,0,0  ],plane(  [ 0,0,1  ],50 ) ),prism,1 );
  p2=ipe( trns(  [ 0,0,50  ],plane(  [ 0,0,1  ],50 ) ),flip( prism ),1,1 );
  swp(  [ each p1,each flip( p2 )  ] );</t>
@@ -587,10 +640,10 @@
     <t xml:space="preserve"> function for creating fillet: this function first finds the intersection point between prism and prism1 and then calculates the fillet with radius "r". option "0" and "1" creates fillet either outside or inside.parameter "s" is for number of segments in the fillet
  an example below will be more clear ( try changing option from 1 =&gt;0 or flip the direction of prism1 by flip( prism1 ) )
  try below code for better understanding:
- sec=cir( 10 );
+ sec=circle( 10 );
  path=cr( pts1(  [  [ 2,0  ], [ -2,0,2  ], [ 0,10,3  ], [ -9.9,0  ]  ] ),5 );
  prism=prism( sec,path );
- prism1=q_rot(  [ "y40"  ],cyl( r=3,h=15,s=30 ) );
+ prism1=q_rot(  [ "y40"  ],cylinder( r=3,h=15,s=30 ) );
  %swp( prism );
  %swp( prism1 );
  fillet=ipf( prism,prism1,r=1,option=1,s=5 );
@@ -612,7 +665,7 @@
     <t xml:space="preserve"> // function to get intersection point between a line and circle
  // example
   line= [  [ 0,0  ], [ 3,5  ]  ];
-  cir=cir( 5 );
+  cir=circle( 5 );
   %p_line( line,.2 );
   %p_line( cir,.2 );
   pnt=l_cir_ip( line,cir );
@@ -640,6 +693,21 @@
  points( line,.2 );  </t>
   </si>
   <si>
+    <t>lexicographic_sort(list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to sort the points in lexicographic order
+ example:
+ sec=m_points_so([ [-10,0],[10,0] ],10);
+ path=m_points_so([ [0.001,0,0.001],[20,0,0.001] ],10);
+ p=surf_extrude(sec,path);
+ p1=c3t2([for(n=p)each n]);
+ sec1=ellipse(10,7,[10,0],s=100);
+ sec3=rnd_list(pies(p1,sec1),3);
+ p2=lexicographic_sort(sec3);
+ for(i=[0:len(p2)-1])translate(p2[i])text(str(i),.5);</t>
+  </si>
+  <si>
     <t>lim( t,s=0,e=1 )</t>
   </si>
   <si>
@@ -651,6 +719,25 @@
   </si>
   <si>
     <t>list_ang( sec )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to calculate angles for each point in the list of points in the section
+example:
+sec=cr(pts1([ [0,0,.2],[8,3,3],[5,7,1],[-8,0,2],[-5,20,1] ]),20);
+echo(list_ang(sec));
+p0=sec[0];
+p1=sec[1];
+p2=sec[2];
+v1=p1-p0;
+v2=p2-p1;
+a=ang_v(v1);
+l1=[[0,0],v1*100];
+l2=[[0,0],v2*100];
+p_lineo(l1,.01);
+p_lineo(l2,.01);
+arc=arc(1.1,a,a+5.5,s=3);
+p_lineo(arc,.01);
+translate([.2,-1,0])text(str(5.5," degrees"),.1);</t>
   </si>
   <si>
     <t>loop( sec,a,b )</t>
@@ -735,6 +822,17 @@
  p_line3d(  [ o(  ),v  ],.2,$fn=20 );</t>
   </si>
   <si>
+    <t>offset(s,r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function for drawing a offset to a section. This is a finer quality and takes a little longer than the f_offset function
+ example
+ sec=cr(pts1([ [0,0,.5],[7,5,2],[5,7,3],[-5,7,5],[-7,5,5] ]),10);
+ path=cr(pts1([ [2,0],[-2,0,2],[0,7,5],[-5,0] ] ),20);
+ prism=prism1(sec,path);
+ swp(prism);</t>
+  </si>
+  <si>
     <t>offst_l( l,d )</t>
   </si>
   <si>
@@ -751,7 +849,7 @@
     <t xml:space="preserve"> function to find the tanget to a circle from a point outside the circle
  example:
  point= [ 10,0  ];
- cir=cir( r=7.5,cp= [ 22.5,15  ] );
+ cir=cir(cle r=7.5,cp= [ 22.5,15  ] );
  p_line(  [ point,p_cir_t( point,cir )  ],.2 );
  p_line( cir,.2 );</t>
   </si>
@@ -829,21 +927,45 @@
  plane= plane( nv= [ 2,3,5  ],dia=20 );
  swp( plane );
  example 2:
- prism=l_extrude( cir( 5,s=50 ),50 );
+ prism=l_extrude( circle( 5,s=50 ),50 );
  p1=ipe( trns(  [ 0,0,0  ],plane(  [ 0,0,1  ],50 ) ),prism,1 );
  p2=ipe( trns(  [ 0,0,50  ],plane(  [ 0,0,1  ],50 ) ),flip( prism ),1,1 );
  swp(  [ each p1,each flip( p2 )  ] );</t>
   </si>
   <si>
+    <t>pld(p,l)</t>
+  </si>
+  <si>
+    <t>function to calculate point to line shortest distance, if projection of point lies with in the line.</t>
+  </si>
+  <si>
+    <t>ppp(point,nv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function for finding projection of a "point" on to a plane defined by a normal vector "nv"
+example:
+point=[10,15,20];
+nv=[3,4,5];
+points([point],.5);
+points([ppp(point=point,nv=nv)],.5);
+swp(plane(nv,dia=10));</t>
+  </si>
+  <si>
     <t>prism( sec,path,m_points=0 )</t>
   </si>
   <si>
     <t>function to make a prism with combination of 2d section and 2d path
  Example:
- sec=cir( 10 );
+ sec=circle( 10 );
  path=cr( pts1(  [  [ 2,0  ], [ -2,0,2  ], [ 0,10,3  ], [ -3,0  ]  ] ),5 );
  prism=prism( sec,path );
  swp( prism );</t>
+  </si>
+  <si>
+    <t>psd(p,s)</t>
+  </si>
+  <si>
+    <t>function to calculate point to section shortest distance, if projection of point lies with in any segment of a section</t>
   </si>
   <si>
     <t>pts( p )</t>
@@ -898,6 +1020,16 @@
   </si>
   <si>
     <t>function to remove duplicae points from a list of points or path</t>
+  </si>
+  <si>
+    <t>remove_extra_points(sec,n=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to remove all the duplicate points in a list, only the first point is preserved
+//example:
+ points_list=[ [1,2,3],[2,3,4],[1,2,3],[3,5,6],[1,2,3] ];
+ cleaned_points_list=remove_extra_points(points_list);
+ echo(cleaned_points_list); // ECHO: [[1, 2, 3], [2, 3, 4], [3, 5, 6]</t>
   </si>
   <si>
     <t>resurf( list )</t>
@@ -929,6 +1061,23 @@
 p_lineo( line1,.1 );</t>
   </si>
   <si>
+    <t>rnd_list(list,n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to round a list of points to "n" decimal points
+ example:
+ x=rands(0,10,50);
+ y=rands(3,10,50);
+ p=[for(i=[0:len(x)-1])[x[i],y[i]]];
+ echo(rnd_list(p,3));</t>
+  </si>
+  <si>
+    <t>rnd_n(list,n)</t>
+  </si>
+  <si>
+    <t>function to round all the numbers in the list to "n" decimal points</t>
+  </si>
+  <si>
     <t>rnd_v(v,n)</t>
   </si>
   <si>
@@ -950,7 +1099,7 @@
   <si>
     <t xml:space="preserve"> function to rotate an object around any arbitrary axis
  example
-  sec=cir( 10 );
+  sec=circle( 10 );
   path=cr( pts1(  [  [ 2,0  ], [ -2,0,2  ], [ -1,5,3  ], [ -4,0  ]  ] ),5 );
   prism=trns(  [ 15,0  ],prism( sec,path ) );
   prism1=rot(  [ 3,4,7  ],prism,180 );
@@ -964,7 +1113,7 @@
   <si>
     <t xml:space="preserve"> function to calculate 2d resized section - centered
  example:
- sec=cir( 10 );
+ sec=circle( 10 );
  rsz_sec=rsz_c( sec, [ 5,3  ] );
  %p_line( sec,.2 );
  p_line( rsz_sec,.2 );</t>
@@ -975,7 +1124,7 @@
   <si>
     <t xml:space="preserve"> function to calculate 2d resized section - placed at minimum y value
  example:
- sec=cir( 10 );
+ sec=circle( 10 );
  rsz_sec=rsz( sec, [ 5,3  ] );
  %p_line( sec,.2 );
  p_line( rsz_sec,.2 );</t>
@@ -999,12 +1148,24 @@
   <si>
     <t xml:space="preserve"> function to calculate the resized prism- centered
 example:
- sec=cir( 10 );
+ sec=circle( 10 );
  path=cr( pts1(  [  [ 2,0  ], [ -2,0,2  ], [ 0,10,3  ], [ -3,0  ]  ] ),5 );
  prism=prism( sec,path );
  %swp( prism );
  resized_prism=rsz3dc( prism, [ 5,5,7  ] );
  swp( resized_prism );</t>
+  </si>
+  <si>
+    <t>s_int(sec1)</t>
+  </si>
+  <si>
+    <t>function to create intersection between all the segments of a section</t>
+  </si>
+  <si>
+    <t>s_int1(sec1)</t>
+  </si>
+  <si>
+    <t>function to get self intersection points between segments. start and end point of the adjacent line segments are omitted</t>
   </si>
   <si>
     <t>s_pnt( sec )</t>
@@ -1043,7 +1204,7 @@
   <si>
     <t xml:space="preserve"> function to scale a 3d prism keeping the prism centered. takes 2 arguments "prism" to scale and the scaling factor "s". scale factor can take any real number negative values will scale the prism and turn the prism upside down.
  try the following code to understand better:
- sec=cir( 10 );
+ sec=circle( 10 );
  path=cr( pts1(  [  [ 2,0  ], [ -2,0,2  ], [ 0,10,3  ], [ -3,0  ]  ] ),5 );
  prism=prism( sec,path );
  %swp( prism );
@@ -1055,7 +1216,7 @@
   <si>
     <t xml:space="preserve"> function to scale a 3d prism keeping the base z-coordinate same. takes 2 arguments "prism" to scale and the scaling factor "s". scale factor can take any real number negative values will scale the prism and turn the prism upside down.
  try the following code to understand better:
- sec=cir( 10 );
+ sec=circle( 10 );
  path=cr( pts1(  [  [ 2,0  ], [ -2,0,2  ], [ 0,10,3  ], [ -3,0  ]  ] ),5 );
  prism=prism( sec,path );
  %swp( prism );
@@ -1071,13 +1232,19 @@
  echo( sec_r( sec ) ); //=&gt;ECHO: 0.5</t>
   </si>
   <si>
+    <t>seg(sec)</t>
+  </si>
+  <si>
+    <t>function to convert a list of points in a section to list of line segments</t>
+  </si>
+  <si>
     <t>sort_points( sec,list )</t>
   </si>
   <si>
     <t xml:space="preserve"> function to match the number of points between 2 sections
  example:
  sec=cr( pts1(  [  [ -2.5,-2.5,1  ], [ 5,0,1  ], [ 0,5,1  ], [ -5,0,1  ]  ] ),5 );
- cir=cir( 5 );
+ cir=cir(cle 5 );
  echo( len( sec ), len( cir ) );
  sec1=sort_points( cir,sec );
  echo( len( sec1 ),len( cir ) );
@@ -1091,19 +1258,19 @@
     <t>function to sort a list of real numbers in ascending order</t>
   </si>
   <si>
-    <t>spr( r,cp= [ 0,0,0  ],s=50 )</t>
+    <t>sphere( r,cp= [ 0,0,0  ],s=50 )</t>
   </si>
   <si>
     <t xml:space="preserve"> function for creating sphere with radius "r", center point "cp" and number of segments "s".
  try following code:
- swp( spr( r=3,cp= [ 4,5,6  ],s=30 ) );</t>
-  </si>
-  <si>
-    <t>sqr( s,center=false )</t>
+ swp( sphere( r=3,cp= [ 4,5,6  ],s=30 ) );</t>
+  </si>
+  <si>
+    <t>square( s,center=false )</t>
   </si>
   <si>
     <t xml:space="preserve"> function to draw a rectangle
- e.g. p_line( sqr(  [ 10,5  ] ),.1 ); or polygon( sqr(  [ 10,5  ] ) );</t>
+ e.g. p_line( square(  [ 10,5  ] ),.1 ); or polygon( square(  [ 10,5  ] ) );</t>
   </si>
   <si>
     <t>sum_v( prism )</t>
@@ -1153,12 +1320,31 @@
  echo( t(  [ v1,v2,v3  ] ) ); // =&gt; ECHO:  [  [ 2, 7, 10  ],  [ 3, 8, 11  ],  [ 5, 9, 12  ]  ]</t>
   </si>
   <si>
+    <t>top_bottom_sort(list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function to sort a list of points in the order top to bottom and left to right
+//example:
+ a=rands(0,10,30);
+ b=rands(0,7,30);
+ pnts=[for(i=[0:len(a)-1])[a[i],b[i]]];
+ sorted_points=top_bottom_sort(pnts);
+for(i=[0:len(sorted_points)-1])
+translate(sorted_points[i]) text(str(i),.25);</t>
+  </si>
+  <si>
     <t>trns( m,sec )</t>
   </si>
   <si>
     <t>function to translate a group of points "sl" by "m" distance defined in  [ x,y,z  ].e.g. try following code:
 sec=cr(  [  [ 0,0,.5  ], [ 10,0,2  ], [ 7,15,1  ]  ],5 );
 p_line3dc( trns(  [ 2,5,10  ],sec ),.1 );</t>
+  </si>
+  <si>
+    <t>unique_sort(list)</t>
+  </si>
+  <si>
+    <t>function to sort the list and remove equal numbers.</t>
   </si>
   <si>
     <t>uv( v )</t>
@@ -1320,9 +1506,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1348,8 +1534,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,9 +1557,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,25 +1610,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,6 +1635,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,47 +1663,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1500,7 +1686,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,19 +1794,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,37 +1818,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,43 +1848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,55 +1860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,15 +1893,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1736,6 +1913,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1747,6 +1948,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1776,171 +1986,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1950,7 +2136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1965,6 +2151,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2288,10 +2477,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B3:C118"/>
+  <dimension ref="B3:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2388,7 +2577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="154" spans="2:3">
+    <row r="14" ht="84" spans="2:3">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2396,7 +2585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="84" spans="2:3">
+    <row r="15" ht="154" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2588,7 +2777,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" ht="224" spans="2:3">
+    <row r="39" ht="154" spans="2:3">
       <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
@@ -2596,31 +2785,31 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" ht="70" spans="2:3">
-      <c r="B40" s="2" t="s">
+    <row r="40" ht="112" spans="2:3">
+      <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" ht="56" spans="2:3">
-      <c r="B41" s="2" t="s">
+    <row r="41" ht="112" spans="2:3">
+      <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" ht="28" spans="2:3">
-      <c r="B42" s="2" t="s">
+    <row r="42" ht="112" spans="2:3">
+      <c r="B42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" ht="42" spans="2:3">
+    <row r="43" ht="224" spans="2:3">
       <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
@@ -2628,7 +2817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" ht="42" spans="2:3">
+    <row r="44" ht="70" spans="2:3">
       <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
@@ -2636,11 +2825,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" ht="56" spans="2:3">
       <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2652,31 +2841,31 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" ht="42" spans="2:3">
       <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" ht="42" spans="2:3">
       <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" ht="70" spans="2:3">
+    <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" ht="98" spans="2:3">
+    <row r="50" ht="28" spans="2:3">
       <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
@@ -2684,11 +2873,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" ht="28" spans="2:3">
+    <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2700,7 +2889,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" ht="56" spans="2:3">
+    <row r="53" ht="70" spans="2:3">
       <c r="B53" s="2" t="s">
         <v>100</v>
       </c>
@@ -2708,7 +2897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" ht="70" spans="2:3">
+    <row r="54" ht="98" spans="2:3">
       <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
@@ -2716,7 +2905,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" ht="98" spans="2:3">
+    <row r="55" ht="28" spans="2:3">
       <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
@@ -2724,15 +2913,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" ht="28" spans="2:3">
+    <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" ht="28" spans="2:3">
+    <row r="57" ht="56" spans="2:3">
       <c r="B57" s="2" t="s">
         <v>108</v>
       </c>
@@ -2740,7 +2929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" ht="168" spans="2:3">
+    <row r="58" ht="70" spans="2:3">
       <c r="B58" s="2" t="s">
         <v>110</v>
       </c>
@@ -2748,7 +2937,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" ht="84" spans="2:3">
+    <row r="59" ht="98" spans="2:3">
       <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
@@ -2756,7 +2945,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" ht="210" spans="2:3">
+    <row r="60" ht="28" spans="2:3">
       <c r="B60" s="2" t="s">
         <v>114</v>
       </c>
@@ -2764,15 +2953,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" ht="56" spans="2:3">
-      <c r="B61" s="2" t="s">
+    <row r="61" ht="28" spans="2:3">
+      <c r="B61" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" ht="154" spans="2:3">
+    <row r="62" ht="28" spans="2:3">
       <c r="B62" s="2" t="s">
         <v>118</v>
       </c>
@@ -2780,7 +2969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" ht="84" spans="2:3">
+    <row r="63" ht="168" spans="2:3">
       <c r="B63" s="2" t="s">
         <v>120</v>
       </c>
@@ -2788,7 +2977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" ht="56" spans="2:3">
+    <row r="64" ht="84" spans="2:3">
       <c r="B64" s="2" t="s">
         <v>122</v>
       </c>
@@ -2796,7 +2985,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" ht="84" spans="2:3">
+    <row r="65" ht="210" spans="2:3">
       <c r="B65" s="2" t="s">
         <v>124</v>
       </c>
@@ -2804,429 +2993,575 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" ht="56" spans="2:3">
       <c r="B66" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" ht="70" spans="2:3">
+      <c r="C66" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" ht="154" spans="2:3">
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" ht="112" spans="2:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" ht="84" spans="2:3">
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" ht="126" spans="2:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" ht="56" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" ht="126" spans="2:3">
-      <c r="B70" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="3" t="s">
+    </row>
+    <row r="70" ht="140" spans="2:3">
+      <c r="B70" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="71" ht="112" spans="2:3">
+      <c r="C70" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" ht="84" spans="2:3">
       <c r="B71" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" ht="56" spans="2:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" ht="308" spans="2:3">
       <c r="B72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="2:3">
+      <c r="C72" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" ht="70" spans="2:3">
       <c r="B73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" ht="56" spans="2:3">
+        <v>140</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" ht="112" spans="2:3">
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" ht="56" spans="2:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" ht="126" spans="2:3">
       <c r="B75" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" ht="70" spans="2:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" ht="126" spans="2:3">
       <c r="B76" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" ht="84" spans="2:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" ht="112" spans="2:3">
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" ht="168" spans="2:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" ht="56" spans="2:3">
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" ht="168" spans="2:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
       <c r="B79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" ht="70" spans="2:3">
+        <v>152</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" ht="56" spans="2:3">
       <c r="B80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" ht="154" spans="2:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" ht="56" spans="2:3">
       <c r="B81" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" ht="224" spans="2:3">
-      <c r="B82" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C82" s="3" t="s">
+    </row>
+    <row r="82" ht="98" spans="2:3">
+      <c r="B82" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="83" ht="140" spans="2:3">
+      <c r="C82" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" ht="70" spans="2:3">
       <c r="B83" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" ht="84" spans="2:3">
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" ht="84" spans="2:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" ht="168" spans="2:3">
       <c r="B85" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" ht="112" spans="2:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" ht="168" spans="2:3">
       <c r="B86" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" ht="42" spans="2:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" ht="70" spans="2:3">
       <c r="B87" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" ht="56" spans="2:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" ht="154" spans="2:3">
       <c r="B88" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" ht="224" spans="2:3">
       <c r="B89" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="90" ht="84" spans="2:3">
+      <c r="C89" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" ht="140" spans="2:3">
       <c r="B90" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="2" t="s">
+    </row>
+    <row r="91" ht="28" spans="2:3">
+      <c r="B91" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="92" ht="266" spans="2:3">
-      <c r="B92" s="2" t="s">
+      <c r="C91" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="3" t="s">
+    </row>
+    <row r="92" ht="112" spans="2:3">
+      <c r="B92" s="4" t="s">
         <v>177</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="93" ht="84" spans="2:3">
       <c r="B93" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" ht="42" spans="2:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" ht="28" spans="2:3">
       <c r="B94" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" ht="42" spans="2:3">
-      <c r="B95" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="5" t="s">
+    </row>
+    <row r="95" ht="84" spans="2:3">
+      <c r="B95" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="96" ht="126" spans="2:3">
+      <c r="C95" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" ht="112" spans="2:3">
       <c r="B96" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" ht="84" spans="2:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" ht="42" spans="2:3">
       <c r="B97" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" ht="84" spans="2:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" ht="56" spans="2:3">
       <c r="B98" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" ht="112" spans="2:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
       <c r="B99" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="100" ht="112" spans="2:3">
+      <c r="C99" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" ht="84" spans="2:3">
       <c r="B100" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" ht="126" spans="2:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
       <c r="B101" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="102" ht="84" spans="2:3">
-      <c r="B102" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="3" t="s">
+    </row>
+    <row r="102" ht="98" spans="2:3">
+      <c r="B102" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="103" ht="84" spans="2:3">
+      <c r="C102" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" ht="266" spans="2:3">
       <c r="B103" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="104" ht="126" spans="2:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" ht="84" spans="2:3">
       <c r="B104" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" ht="126" spans="2:3">
-      <c r="B105" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C105" s="3" t="s">
+    </row>
+    <row r="105" ht="84" spans="2:3">
+      <c r="B105" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="106" ht="56" spans="2:3">
-      <c r="B106" s="2" t="s">
+      <c r="C105" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="3" t="s">
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="107" ht="154" spans="2:3">
+      <c r="C106" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" ht="42" spans="2:3">
       <c r="B107" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" ht="42" spans="2:3">
       <c r="B108" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C108" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="109" ht="56" spans="2:3">
+      <c r="C108" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" ht="126" spans="2:3">
       <c r="B109" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="110" ht="28" spans="2:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" ht="84" spans="2:3">
       <c r="B110" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" ht="56" spans="2:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" ht="84" spans="2:3">
       <c r="B111" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="112" ht="42" spans="2:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" ht="112" spans="2:3">
       <c r="B112" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="113" ht="42" spans="2:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" ht="112" spans="2:3">
       <c r="B113" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="114" ht="112" spans="2:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
       <c r="B114" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="115" ht="84" spans="2:3">
-      <c r="B115" s="2" t="s">
+      <c r="C114" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C115" s="3" t="s">
+    </row>
+    <row r="115" ht="28" spans="2:3">
+      <c r="B115" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="116" ht="56" spans="2:3">
+      <c r="C115" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" ht="126" spans="2:3">
       <c r="B116" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" ht="42" spans="2:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" ht="84" spans="2:3">
       <c r="B117" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="118" ht="98" spans="2:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" ht="84" spans="2:3">
       <c r="B118" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" ht="126" spans="2:3">
+      <c r="B119" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" ht="126" spans="2:3">
+      <c r="B120" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" ht="56" spans="2:3">
+      <c r="B121" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" ht="154" spans="2:3">
+      <c r="B123" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" ht="56" spans="2:3">
+      <c r="B125" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" ht="28" spans="2:3">
+      <c r="B126" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" ht="56" spans="2:3">
+      <c r="B127" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" ht="42" spans="2:3">
+      <c r="B128" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" ht="42" spans="2:3">
+      <c r="B129" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" ht="112" spans="2:3">
+      <c r="B130" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" ht="84" spans="2:3">
+      <c r="B131" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" ht="140" spans="2:3">
+      <c r="B132" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" ht="56" spans="2:3">
+      <c r="B133" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" ht="42" spans="2:3">
+      <c r="B135" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" ht="98" spans="2:3">
+      <c r="B136" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:C118">
-    <sortCondition ref="B4:B118"/>
+  <sortState ref="B4:C136">
+    <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3250,7 +3585,7 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -3258,104 +3593,104 @@
     </row>
     <row r="5" ht="140" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" ht="140" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" ht="28" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" ht="56" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" ht="56" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" ht="28" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" ht="98" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" ht="112" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" ht="42" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" ht="154" spans="2:3">
       <c r="B15" s="2" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" ht="112" spans="2:3">
       <c r="B16" s="2" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" ht="224" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
